--- a/C2/Event for Womens Improvement.xlsx
+++ b/C2/Event for Womens Improvement.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -454,7 +455,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -775,4 +776,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>